--- a/Technology/Hardware/Jabil.xlsx
+++ b/Technology/Hardware/Jabil.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA96219-B3A1-6944-B924-1EC2577942D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA268959-B352-1440-8961-392E52B2A15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="252">
   <si>
     <t>2011 Y</t>
   </si>
@@ -712,9 +712,6 @@
     <t>Enterprise Value</t>
   </si>
   <si>
-    <t>Daily Change %</t>
-  </si>
-  <si>
     <t>Cost of Debt</t>
   </si>
   <si>
@@ -826,7 +823,13 @@
     <t>WACC</t>
   </si>
   <si>
-    <t>x</t>
+    <t>Profit Margin</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>Daily Change (%)</t>
   </si>
 </sst>
 </file>
@@ -839,7 +842,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -996,6 +999,17 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -1079,7 +1093,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1124,65 +1138,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
       <top/>
@@ -1191,23 +1148,93 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1217,7 +1244,148 @@
       </left>
       <right/>
       <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1225,7 +1393,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1287,247 +1455,257 @@
     <xf numFmtId="4" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="14" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="13" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="12"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="19" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="23" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="23" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="14" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="13" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="19" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="2" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="19" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="19" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+    <xf numFmtId="10" fontId="19" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="26" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="20" fillId="9" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="20" fillId="9" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1555,18 +1733,18 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Technology - Software"/>
-      <sheetName val="Technology - Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Commodity Stocks"/>
-      <sheetName val="Full Portfolio"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Growth"/>
+      <sheetName val="Commodities"/>
+      <sheetName val="US Treasury Bonds"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -1580,15 +1758,15 @@
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9">
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.8470000000000006E-2</v>
+            <v>4.2709999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
@@ -1748,39 +1926,39 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>141.38</v>
-    <v>58.95</v>
-    <v>1.4053</v>
-    <v>-2.02</v>
-    <v>-1.4699E-2</v>
-    <v>0.6</v>
-    <v>4.431E-3</v>
+    <v>64.739999999999995</v>
+    <v>1.3167</v>
+    <v>1.6</v>
+    <v>1.3873999999999999E-2</v>
+    <v>3.68</v>
+    <v>3.1476999999999998E-2</v>
     <v>USD</v>
-    <v>Jabil Inc. is a provider of manufacturing services and solutions. The Company provides comprehensive electronics design, production and product management services to companies in various industries and end markets. The Company has two segments: Electronics Manufacturing Services (EMS) and Diversified Manufacturing Services (DMS). EMS segment is focused on leveraging information technology (IT), supply chain design and engineering, technologies centered on core electronics, sharing of its manufacturing infrastructure and the ability to serve a range of markets. EMS segment produces product to the customers primarily in the fifth generation, wireless and cloud, digital print and retail, industrial and semi-cap, and networking and storage industries. DMS segment is focused on providing engineering solutions, with a focus on material sciences, technologies and healthcare. DMS segment includes customers primarily in the automotive and transportation, connected devices, and other.</v>
-    <v>250000</v>
+    <v>Jabil Inc. is a manufacturing solutions provider. The Company provides comprehensive electronics design, production and product management services to companies in various industries and end markets. It operates through two segments: Electronics Manufacturing Services (EMS) and Diversified Manufacturing Services (DMS). EMS segment is focused on leveraging information technology, supply chain design and engineering, technologies centered on core electronics, utilizing its manufacturing infrastructure and its ability to serve a broad range of end markets. EMS segment includes customers in the fifth generation (5G), wireless and cloud, digital print and retail, industrial and semi-capital equipment, and networking and storage industries. DMS segment provides engineering solutions, which is focused on material sciences, machining, tooling and others. DMS segment includes customers in the automotive and transportation, connected devices, healthcare and packaging, and mobility industries.</v>
+    <v>236000</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
     <v>10800 Roosevelt Boulevard North, ST PETERSBURG, FL, 33716 US</v>
-    <v>137.07</v>
+    <v>118.73</v>
     <v>3</v>
     <v>Electronic Equipment &amp; Parts</v>
     <v>Stock</v>
-    <v>45217.965797267971</v>
+    <v>45262.040022800778</v>
     <v>4</v>
-    <v>134.67500000000001</v>
-    <v>17721341560</v>
+    <v>113.505</v>
+    <v>14959341092</v>
     <v>JABIL INC.</v>
     <v>JABIL INC.</v>
-    <v>136</v>
-    <v>22.509799999999998</v>
-    <v>137.41999999999999</v>
-    <v>135.4</v>
-    <v>136</v>
-    <v>130881400</v>
+    <v>114.79</v>
+    <v>19.1798</v>
+    <v>115.32</v>
+    <v>116.92</v>
+    <v>120.59</v>
+    <v>127945100</v>
     <v>JBL</v>
     <v>JABIL INC. (XNYS:JBL)</v>
-    <v>1357496</v>
-    <v>1778097</v>
+    <v>2232265</v>
+    <v>1685510</v>
     <v>1992</v>
   </rv>
   <rv s="4">
@@ -2428,8 +2606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY196"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A159" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="K36" sqref="K36:N36"/>
     </sheetView>
   </sheetViews>
@@ -15730,1708 +15908,1888 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E20C6AC-9194-3C44-A042-5C90D44B951C}">
-  <dimension ref="A1:P110"/>
+  <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16" width="18.83203125" customWidth="1"/>
+    <col min="1" max="18" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="111" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="111" t="e" vm="1">
+    <row r="1" spans="1:18" s="100" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="100" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="111" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" cm="1">
+    <row r="2" spans="1:18" s="100" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="68" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>17721341560</v>
-      </c>
-      <c r="B3" s="98" t="s">
+        <v>14959341092</v>
+      </c>
+      <c r="B3" s="69" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="70">
         <f>Financials!O8*0.01</f>
         <v>8.2599999999999993E-2</v>
       </c>
-      <c r="D3" s="98" t="s">
+      <c r="D3" s="69" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="70">
         <f>SUM(C11:E11)/3</f>
         <v>8.4590479276234865E-2</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="71" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="37">
+      <c r="G3" s="72">
         <f>SUM(Financials!K129:N129)/4</f>
         <v>-3.8114824137343961E-2</v>
       </c>
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="71" t="s">
         <v>204</v>
       </c>
-      <c r="I3" s="38">
-        <f>J14*(1+I7)/(I6-I7)</f>
-        <v>26491891726.486622</v>
-      </c>
-      <c r="J3" s="98" t="s">
+      <c r="I3" s="73">
+        <f>J15*(1+I7)/(I6-I7)</f>
+        <v>27694349386.728153</v>
+      </c>
+      <c r="J3" s="74" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="39"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="112" t="s">
+      <c r="K3" s="75">
+        <f>Financials!O172*-1/Model!A3</f>
+        <v>3.0081538834665139E-3</v>
+      </c>
+      <c r="L3" s="76" t="s">
+        <v>250</v>
+      </c>
+      <c r="M3" s="35"/>
+      <c r="N3" s="101" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="113"/>
-      <c r="P3" s="41"/>
-    </row>
-    <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42">
+      <c r="O3" s="102"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+    </row>
+    <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="77">
         <f>Financials!O56-Financials!O96-Financials!O105</f>
         <v>-1444000000</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="78" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="37">
         <f>Financials!O17*0.01</f>
         <v>4.5899999999999996E-2</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="78" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="37">
         <f>SUM(C13:E13)/3</f>
         <v>4.0540823040787135</v>
       </c>
-      <c r="F4" s="102" t="s">
+      <c r="F4" s="79" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="44">
+      <c r="G4" s="80">
         <f>A5*(1+(5*G3))</f>
-        <v>105938792.28075315</v>
-      </c>
-      <c r="H4" s="103" t="s">
+        <v>103562075.07132557</v>
+      </c>
+      <c r="H4" s="79" t="s">
         <v>210</v>
       </c>
-      <c r="I4" s="45">
-        <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>23371240148.913849</v>
-      </c>
-      <c r="J4" s="103" t="s">
+      <c r="I4" s="36">
+        <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
+        <v>24433995391.440422</v>
+      </c>
+      <c r="J4" s="79" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="37" cm="1">
+      <c r="K4" s="81" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-1.4699E-2</v>
-      </c>
-      <c r="L4" s="46" t="s">
+        <v>1.3873999999999999E-2</v>
+      </c>
+      <c r="L4" s="82" t="s">
+        <v>251</v>
+      </c>
+      <c r="M4" s="35"/>
+      <c r="N4" s="103" t="s">
         <v>212</v>
       </c>
-      <c r="M4" s="41"/>
-      <c r="N4" s="114" t="s">
+      <c r="O4" s="104"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+    </row>
+    <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="77" cm="1">
+        <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>127945100</v>
+      </c>
+      <c r="B5" s="78" t="s">
         <v>213</v>
       </c>
-      <c r="O4" s="115"/>
-      <c r="P4" s="41"/>
-    </row>
-    <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="44" cm="1">
-        <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>130881400</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>214</v>
-      </c>
-      <c r="C5" s="47">
+      <c r="C5" s="37">
         <f>Financials!O34*0.01</f>
         <v>2.3599999999999999E-2</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="83" t="s">
+        <v>214</v>
+      </c>
+      <c r="E5" s="37">
+        <f>SUM(C16:E16)/3</f>
+        <v>0.19636282529520824</v>
+      </c>
+      <c r="F5" s="79" t="s">
         <v>215</v>
       </c>
-      <c r="E5" s="43">
-        <f>SUM(C15:E15)/3</f>
-        <v>0.19636282529520824</v>
-      </c>
-      <c r="F5" s="102" t="s">
-        <v>216</v>
-      </c>
-      <c r="G5" s="44">
+      <c r="G5" s="80">
         <f>Financials!O56</f>
         <v>1804000000</v>
       </c>
-      <c r="H5" s="103" t="s">
+      <c r="H5" s="79" t="s">
+        <v>216</v>
+      </c>
+      <c r="I5" s="36">
+        <f>I4+G5-G6</f>
+        <v>22989995391.440422</v>
+      </c>
+      <c r="J5" s="79" t="s">
         <v>217</v>
       </c>
-      <c r="I5" s="45">
-        <f>I4+G5-G6</f>
-        <v>21927240148.913849</v>
-      </c>
-      <c r="J5" s="103" t="s">
+      <c r="K5" s="84" cm="1">
+        <f t="array" ref="K5">_FV(A1,"Price")</f>
+        <v>116.92</v>
+      </c>
+      <c r="L5" s="85" t="s">
         <v>218</v>
       </c>
-      <c r="K5" s="48" cm="1">
-        <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>135.4</v>
-      </c>
-      <c r="L5" s="49" t="s">
+      <c r="M5" s="35"/>
+      <c r="N5" s="105" t="s">
         <v>219</v>
       </c>
-      <c r="M5" s="41"/>
-      <c r="N5" s="50" t="s">
-        <v>220</v>
-      </c>
-      <c r="O5" s="51">
+      <c r="O5" s="106">
         <f>Financials!O21</f>
         <v>145000000</v>
       </c>
-      <c r="P5" s="41"/>
-    </row>
-    <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="52">
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+    </row>
+    <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="86">
         <f>O20/F10</f>
-        <v>0.52893211437440302</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>221</v>
-      </c>
-      <c r="C6" s="43">
+        <v>0.44649418254536771</v>
+      </c>
+      <c r="B6" s="78" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" s="37">
         <f>Financials!O190</f>
         <v>2.2995381735923002E-2</v>
       </c>
-      <c r="D6" s="100" t="s">
+      <c r="D6" s="83" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="37">
         <f>Financials!O33/Financials!O126</f>
         <v>0.28531566096965472</v>
       </c>
-      <c r="F6" s="49" t="s">
-        <v>222</v>
-      </c>
-      <c r="G6" s="45">
+      <c r="F6" s="78" t="s">
+        <v>221</v>
+      </c>
+      <c r="G6" s="80">
         <f>Financials!O96+Financials!O105</f>
         <v>3248000000</v>
       </c>
-      <c r="H6" s="103" t="s">
+      <c r="H6" s="79" t="s">
+        <v>222</v>
+      </c>
+      <c r="I6" s="81">
+        <f>N25</f>
+        <v>8.4921068259334626E-2</v>
+      </c>
+      <c r="J6" s="79" t="s">
         <v>223</v>
       </c>
-      <c r="I6" s="53">
-        <f>N25</f>
-        <v>8.7640864500471094E-2</v>
-      </c>
-      <c r="J6" s="103" t="s">
+      <c r="K6" s="38">
+        <f>I5/G4</f>
+        <v>221.99241735554918</v>
+      </c>
+      <c r="L6" s="87" t="s">
         <v>224</v>
       </c>
-      <c r="K6" s="54">
-        <f>I5/G4</f>
-        <v>206.98027301277406</v>
-      </c>
-      <c r="L6" s="55" t="s">
+      <c r="M6" s="35"/>
+      <c r="N6" s="105" t="s">
         <v>225</v>
       </c>
-      <c r="M6" s="41"/>
-      <c r="N6" s="56" t="s">
-        <v>226</v>
-      </c>
-      <c r="O6" s="57">
+      <c r="O6" s="106">
         <f>Financials!O96</f>
         <v>104000000</v>
       </c>
-      <c r="P6" s="41"/>
-    </row>
-    <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="58">
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+    </row>
+    <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="88">
         <f>O20/F12</f>
-        <v>14.549541510673235</v>
-      </c>
-      <c r="B7" s="99" t="s">
+        <v>12.281889238095237</v>
+      </c>
+      <c r="B7" s="89" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="90">
+        <f>F15/O21</f>
+        <v>7.8704517741452984E-2</v>
+      </c>
+      <c r="D7" s="89" t="s">
         <v>227</v>
       </c>
-      <c r="C7" s="59">
-        <f>F14/O21</f>
-        <v>6.8337863442193836E-2</v>
-      </c>
-      <c r="D7" s="101" t="s">
-        <v>228</v>
-      </c>
-      <c r="E7" s="60">
+      <c r="E7" s="91">
         <f>(Financials!O16*(1-0.25))/(Financials!O126+Financials!O105+Financials!O96)</f>
         <v>0.19550286181520851</v>
       </c>
-      <c r="F7" s="99" t="s">
+      <c r="F7" s="89" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="61">
+      <c r="G7" s="92">
         <f>(Financials!O96+Financials!O105)/Financials!O126</f>
         <v>1.1328915242413673</v>
       </c>
-      <c r="H7" s="104" t="s">
+      <c r="H7" s="93" t="s">
+        <v>228</v>
+      </c>
+      <c r="I7" s="94">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J7" s="95" t="s">
         <v>229</v>
       </c>
-      <c r="I7" s="62">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="J7" s="105" t="s">
+      <c r="K7" s="96">
+        <f>K6/K5-1</f>
+        <v>0.89866932394414278</v>
+      </c>
+      <c r="L7" s="97" t="s">
         <v>230</v>
       </c>
-      <c r="K7" s="63">
-        <f>K6/K5-1</f>
-        <v>0.52865785090675077</v>
-      </c>
-      <c r="L7" s="64" t="s">
+      <c r="M7" s="35"/>
+      <c r="N7" s="105" t="s">
         <v>231</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="56" t="s">
-        <v>232</v>
-      </c>
-      <c r="O7" s="57">
+      <c r="O7" s="106">
         <f>Financials!O105</f>
         <v>3144000000</v>
       </c>
-      <c r="P7" s="41"/>
-    </row>
-    <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="65"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="66" t="s">
-        <v>213</v>
-      </c>
-      <c r="O8" s="67">
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+    </row>
+    <row r="8" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="39"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="107" t="s">
+        <v>212</v>
+      </c>
+      <c r="O8" s="108">
         <f>O5/(O6+O7)</f>
         <v>4.4642857142857144E-2</v>
       </c>
-      <c r="P8" s="41"/>
-    </row>
-    <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="68"/>
-      <c r="B9" s="88">
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+    </row>
+    <row r="9" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="48"/>
+      <c r="B9" s="49">
         <v>2020</v>
       </c>
-      <c r="C9" s="88">
+      <c r="C9" s="49">
         <v>2021</v>
       </c>
-      <c r="D9" s="88">
+      <c r="D9" s="49">
         <v>2022</v>
       </c>
-      <c r="E9" s="88">
+      <c r="E9" s="50">
         <v>2023</v>
       </c>
-      <c r="F9" s="89">
+      <c r="F9" s="51">
         <v>2024</v>
       </c>
-      <c r="G9" s="90">
+      <c r="G9" s="52">
         <v>2025</v>
       </c>
-      <c r="H9" s="90">
+      <c r="H9" s="52">
         <v>2026</v>
       </c>
-      <c r="I9" s="90">
+      <c r="I9" s="52">
         <v>2027</v>
       </c>
-      <c r="J9" s="90">
+      <c r="J9" s="53">
         <v>2028</v>
       </c>
-      <c r="K9" s="69"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="56" t="s">
-        <v>233</v>
-      </c>
-      <c r="O9" s="57">
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="105" t="s">
+        <v>232</v>
+      </c>
+      <c r="O9" s="106">
         <f>Financials!O25</f>
         <v>444000000</v>
       </c>
-      <c r="P9" s="41"/>
-    </row>
-    <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="71" t="s">
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+    </row>
+    <row r="10" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="54" t="s">
+        <v>233</v>
+      </c>
+      <c r="B10" s="55">
+        <v>27266438000</v>
+      </c>
+      <c r="C10" s="55">
+        <v>29285000000</v>
+      </c>
+      <c r="D10" s="55">
+        <v>33478000000</v>
+      </c>
+      <c r="E10" s="56">
+        <v>34702000000</v>
+      </c>
+      <c r="F10" s="55">
+        <v>33504000000</v>
+      </c>
+      <c r="G10" s="55">
+        <v>34725000000</v>
+      </c>
+      <c r="H10" s="55">
+        <v>35602000000</v>
+      </c>
+      <c r="I10" s="55">
+        <v>36314000000</v>
+      </c>
+      <c r="J10" s="56">
+        <v>37040000000</v>
+      </c>
+      <c r="K10" s="57" t="s">
         <v>234</v>
       </c>
-      <c r="B10" s="91">
-        <v>27266438000</v>
-      </c>
-      <c r="C10" s="91">
-        <v>29285000000</v>
-      </c>
-      <c r="D10" s="91">
-        <v>33478000000</v>
-      </c>
-      <c r="E10" s="91">
-        <v>34702000000</v>
-      </c>
-      <c r="F10" s="92">
-        <v>33504000000</v>
-      </c>
-      <c r="G10" s="91">
-        <v>34725000000</v>
-      </c>
-      <c r="H10" s="91">
-        <v>35602000000</v>
-      </c>
-      <c r="I10" s="91">
-        <v>36314000000</v>
-      </c>
-      <c r="J10" s="91">
-        <v>37040000000</v>
-      </c>
-      <c r="K10" s="72" t="s">
+      <c r="N10" s="105" t="s">
         <v>235</v>
       </c>
-      <c r="N10" s="56" t="s">
-        <v>236</v>
-      </c>
-      <c r="O10" s="57">
+      <c r="O10" s="106">
         <f>Financials!O24</f>
         <v>1262000000</v>
       </c>
-      <c r="P10" s="41"/>
-    </row>
-    <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="73"/>
-      <c r="B11" s="93"/>
-      <c r="C11" s="93">
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+    </row>
+    <row r="11" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="58"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>7.4031012044917688E-2</v>
       </c>
-      <c r="D11" s="93">
+      <c r="D11" s="41">
         <f t="shared" si="0"/>
         <v>0.14317910192931538</v>
       </c>
-      <c r="E11" s="93">
+      <c r="E11" s="41">
         <f t="shared" si="0"/>
         <v>3.6561323854471528E-2</v>
       </c>
-      <c r="F11" s="94">
+      <c r="F11" s="42">
         <f t="shared" si="0"/>
         <v>-3.4522505907440548E-2</v>
       </c>
-      <c r="G11" s="93">
+      <c r="G11" s="41">
         <f t="shared" si="0"/>
         <v>3.6443409742120236E-2</v>
       </c>
-      <c r="H11" s="93">
+      <c r="H11" s="41">
         <f t="shared" si="0"/>
         <v>2.5255579553635776E-2</v>
       </c>
-      <c r="I11" s="93">
+      <c r="I11" s="41">
         <f t="shared" si="0"/>
         <v>1.9998876467614224E-2</v>
       </c>
-      <c r="J11" s="93">
+      <c r="J11" s="59">
         <f t="shared" si="0"/>
         <v>1.9992289475133651E-2</v>
       </c>
-      <c r="K11" s="75">
+      <c r="K11" s="59">
         <f>SUM(F11:J11)/5</f>
         <v>1.3433529866212667E-2</v>
       </c>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="56" t="s">
-        <v>237</v>
-      </c>
-      <c r="O11" s="76">
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="105" t="s">
+        <v>236</v>
+      </c>
+      <c r="O11" s="109">
         <f>O9/O10</f>
         <v>0.35182250396196513</v>
       </c>
-      <c r="P11" s="41"/>
-    </row>
-    <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="71" t="s">
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+    </row>
+    <row r="12" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="91">
+      <c r="B12" s="55">
         <v>53912000</v>
       </c>
-      <c r="C12" s="91">
+      <c r="C12" s="55">
         <v>696000000</v>
       </c>
-      <c r="D12" s="91">
+      <c r="D12" s="55">
         <v>996000000</v>
       </c>
-      <c r="E12" s="91">
+      <c r="E12" s="55">
         <v>818000000</v>
       </c>
-      <c r="F12" s="92">
+      <c r="F12" s="60">
         <v>1218000000</v>
       </c>
-      <c r="G12" s="91">
+      <c r="G12" s="55">
         <v>1289000000</v>
       </c>
-      <c r="H12" s="91">
+      <c r="H12" s="55">
         <v>1384000000</v>
       </c>
-      <c r="I12" s="91">
+      <c r="I12" s="55">
         <v>1411000000</v>
       </c>
-      <c r="J12" s="91">
+      <c r="J12" s="56">
         <v>1440000000</v>
       </c>
-      <c r="K12" s="72" t="s">
+      <c r="K12" s="61" t="s">
+        <v>237</v>
+      </c>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="105" t="s">
         <v>238</v>
       </c>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="77" t="s">
-        <v>239</v>
-      </c>
-      <c r="O12" s="78">
+      <c r="O12" s="109">
         <f>O8*(1-O11)</f>
         <v>2.8936495358840842E-2</v>
       </c>
-      <c r="P12" s="41"/>
-    </row>
-    <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="73"/>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93">
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+    </row>
+    <row r="13" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="58"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
         <v>11.90992728891527</v>
       </c>
-      <c r="D13" s="93">
+      <c r="D13" s="41">
         <f t="shared" si="1"/>
         <v>0.43103448275862077</v>
       </c>
-      <c r="E13" s="93">
+      <c r="E13" s="41">
         <f t="shared" si="1"/>
         <v>-0.17871485943775101</v>
       </c>
-      <c r="F13" s="94">
+      <c r="F13" s="42">
         <f t="shared" si="1"/>
         <v>0.48899755501222497</v>
       </c>
-      <c r="G13" s="93">
+      <c r="G13" s="41">
         <f t="shared" si="1"/>
         <v>5.8292282430213449E-2</v>
       </c>
-      <c r="H13" s="93">
+      <c r="H13" s="41">
         <f t="shared" si="1"/>
         <v>7.3700543056633094E-2</v>
       </c>
-      <c r="I13" s="93">
+      <c r="I13" s="41">
         <f t="shared" si="1"/>
         <v>1.9508670520231197E-2</v>
       </c>
-      <c r="J13" s="93">
+      <c r="J13" s="59">
         <f t="shared" si="1"/>
         <v>2.0552799433026125E-2</v>
       </c>
-      <c r="K13" s="75">
+      <c r="K13" s="59">
         <f>SUM(F13:J13)/5</f>
         <v>0.13221037009046577</v>
       </c>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="114" t="s">
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="103" t="s">
+        <v>239</v>
+      </c>
+      <c r="O13" s="104"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+    </row>
+    <row r="14" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="B14" s="45">
+        <f>B12/B10</f>
+        <v>1.977229295590425E-3</v>
+      </c>
+      <c r="C14" s="45">
+        <f t="shared" ref="C14:J14" si="2">C12/C10</f>
+        <v>2.3766433327642139E-2</v>
+      </c>
+      <c r="D14" s="45">
+        <f t="shared" si="2"/>
+        <v>2.9750881175697474E-2</v>
+      </c>
+      <c r="E14" s="45">
+        <f t="shared" si="2"/>
+        <v>2.3572128407584578E-2</v>
+      </c>
+      <c r="F14" s="46">
+        <f t="shared" si="2"/>
+        <v>3.6353868194842404E-2</v>
+      </c>
+      <c r="G14" s="45">
+        <f t="shared" si="2"/>
+        <v>3.7120230381569475E-2</v>
+      </c>
+      <c r="H14" s="45">
+        <f t="shared" si="2"/>
+        <v>3.887422054940734E-2</v>
+      </c>
+      <c r="I14" s="45">
+        <f t="shared" si="2"/>
+        <v>3.8855537809109435E-2</v>
+      </c>
+      <c r="J14" s="47">
+        <f t="shared" si="2"/>
+        <v>3.8876889848812095E-2</v>
+      </c>
+      <c r="K14" s="47"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="105" t="s">
+        <v>241</v>
+      </c>
+      <c r="O14" s="109">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.2709999999999998E-2</v>
+      </c>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+    </row>
+    <row r="15" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="55">
+        <v>312103918</v>
+      </c>
+      <c r="C15" s="55">
+        <v>370122881</v>
+      </c>
+      <c r="D15" s="55">
+        <v>388173842</v>
+      </c>
+      <c r="E15" s="55">
+        <v>525751189</v>
+      </c>
+      <c r="F15" s="60">
+        <v>1433000000</v>
+      </c>
+      <c r="G15" s="55">
+        <v>1448000000</v>
+      </c>
+      <c r="H15" s="55">
+        <v>1578000000</v>
+      </c>
+      <c r="I15" s="55">
+        <v>1587000000</v>
+      </c>
+      <c r="J15" s="56">
+        <v>1619000000</v>
+      </c>
+      <c r="K15" s="61" t="s">
         <v>240</v>
       </c>
-      <c r="O13" s="115"/>
-      <c r="P13" s="41"/>
-    </row>
-    <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="71" t="s">
-        <v>185</v>
-      </c>
-      <c r="B14" s="91">
-        <v>312103918</v>
-      </c>
-      <c r="C14" s="91">
-        <v>370122881</v>
-      </c>
-      <c r="D14" s="91">
-        <v>388173842</v>
-      </c>
-      <c r="E14" s="91">
-        <v>525751189</v>
-      </c>
-      <c r="F14" s="92">
-        <v>1433000000</v>
-      </c>
-      <c r="G14" s="91">
-        <v>1448000000</v>
-      </c>
-      <c r="H14" s="91">
-        <v>1578000000</v>
-      </c>
-      <c r="I14" s="91">
-        <v>1587000000</v>
-      </c>
-      <c r="J14" s="91">
-        <v>1619000000</v>
-      </c>
-      <c r="K14" s="72" t="s">
-        <v>241</v>
-      </c>
-      <c r="L14" s="70"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="56" t="s">
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="105" t="s">
         <v>242</v>
       </c>
-      <c r="O14" s="76">
-        <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.8470000000000006E-2</v>
-      </c>
-      <c r="P14" s="41"/>
-    </row>
-    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="79"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="93">
-        <f t="shared" ref="C15:J15" si="2">(C14/B14)-1</f>
+      <c r="O15" s="110" cm="1">
+        <f t="array" ref="O15">_FV(A1,"Beta")</f>
+        <v>1.3167</v>
+      </c>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+    </row>
+    <row r="16" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="62"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41">
+        <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
         <v>0.1858962981682275</v>
       </c>
-      <c r="D15" s="93">
-        <f t="shared" si="2"/>
+      <c r="D16" s="41">
+        <f t="shared" si="3"/>
         <v>4.8770183975737513E-2</v>
       </c>
-      <c r="E15" s="93">
-        <f t="shared" si="2"/>
+      <c r="E16" s="41">
+        <f t="shared" si="3"/>
         <v>0.35442199374165972</v>
       </c>
-      <c r="F15" s="94">
-        <f t="shared" si="2"/>
+      <c r="F16" s="42">
+        <f t="shared" si="3"/>
         <v>1.7256238882229136</v>
       </c>
-      <c r="G15" s="93">
-        <f t="shared" si="2"/>
+      <c r="G16" s="41">
+        <f t="shared" si="3"/>
         <v>1.046755059316129E-2</v>
       </c>
-      <c r="H15" s="93">
-        <f t="shared" si="2"/>
+      <c r="H16" s="41">
+        <f t="shared" si="3"/>
         <v>8.9779005524861955E-2</v>
       </c>
-      <c r="I15" s="93">
-        <f t="shared" si="2"/>
+      <c r="I16" s="41">
+        <f t="shared" si="3"/>
         <v>5.7034220532319324E-3</v>
       </c>
-      <c r="J15" s="93">
-        <f t="shared" si="2"/>
+      <c r="J16" s="59">
+        <f t="shared" si="3"/>
         <v>2.01638311279142E-2</v>
       </c>
-      <c r="K15" s="75">
-        <f>SUM(F15:J15)/5</f>
+      <c r="K16" s="59">
+        <f>SUM(F16:J16)/5</f>
         <v>0.37034753950441657</v>
       </c>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="56" t="s">
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="105" t="s">
         <v>243</v>
       </c>
-      <c r="O15" s="80" cm="1">
-        <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.4053</v>
-      </c>
-      <c r="P15" s="41"/>
-    </row>
-    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="71" t="s">
+      <c r="O16" s="109">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+    </row>
+    <row r="17" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" s="45">
+        <f>B15/B10</f>
+        <v>1.1446449954335802E-2</v>
+      </c>
+      <c r="C17" s="45">
+        <f t="shared" ref="C17:J17" si="4">C15/C10</f>
+        <v>1.2638650537817996E-2</v>
+      </c>
+      <c r="D17" s="45">
+        <f t="shared" si="4"/>
+        <v>1.1594893422546149E-2</v>
+      </c>
+      <c r="E17" s="47">
+        <f t="shared" si="4"/>
+        <v>1.5150457869863408E-2</v>
+      </c>
+      <c r="F17" s="45">
+        <f t="shared" si="4"/>
+        <v>4.2771012416427889E-2</v>
+      </c>
+      <c r="G17" s="45">
+        <f t="shared" si="4"/>
+        <v>4.1699064074874011E-2</v>
+      </c>
+      <c r="H17" s="45">
+        <f t="shared" si="4"/>
+        <v>4.4323352620639293E-2</v>
+      </c>
+      <c r="I17" s="45">
+        <f t="shared" si="4"/>
+        <v>4.3702153439444842E-2</v>
+      </c>
+      <c r="J17" s="47">
+        <f t="shared" si="4"/>
+        <v>4.3709503239740821E-2</v>
+      </c>
+      <c r="K17" s="47"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="111" t="s">
+        <v>239</v>
+      </c>
+      <c r="O17" s="112">
+        <f>(O14)+((O15)*(O16-O14))</f>
+        <v>9.7076543000000015E-2</v>
+      </c>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+    </row>
+    <row r="18" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="63" t="s">
         <v>196</v>
       </c>
-      <c r="B16" s="95">
+      <c r="B18" s="64">
         <v>9.9126189763338951E-2</v>
       </c>
-      <c r="C16" s="95">
+      <c r="C18" s="64">
         <v>0.14639846041055718</v>
       </c>
-      <c r="D16" s="95">
+      <c r="D18" s="64">
         <v>0.18049633293535733</v>
       </c>
-      <c r="E16" s="95">
+      <c r="E18" s="64">
         <v>0.19550286181520851</v>
       </c>
-      <c r="F16" s="96"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="56" t="s">
+      <c r="F18" s="65"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="103" t="s">
         <v>244</v>
       </c>
-      <c r="O16" s="76">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="P16" s="41"/>
-    </row>
-    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="70"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="82" t="s">
-        <v>240</v>
-      </c>
-      <c r="O17" s="83">
-        <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.8400309000000005E-2</v>
-      </c>
-      <c r="P17" s="41"/>
-    </row>
-    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="70"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="114" t="s">
-        <v>245</v>
-      </c>
-      <c r="O18" s="115"/>
-      <c r="P18" s="41"/>
-    </row>
-    <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="116" t="str" cm="1">
-        <f t="array" ref="A19">_FV(A1,"Industry")</f>
-        <v>Electronic Equipment &amp; Parts</v>
-      </c>
-      <c r="B19" s="116"/>
-      <c r="C19" s="117" cm="1">
-        <f t="array" ref="C19">_FV(A1,"Year incorporated",TRUE)</f>
-        <v>1992</v>
-      </c>
-      <c r="D19" s="117"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="56" t="s">
-        <v>223</v>
-      </c>
-      <c r="O19" s="85">
+      <c r="O18" s="104"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+    </row>
+    <row r="19" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="105" t="s">
+        <v>222</v>
+      </c>
+      <c r="O19" s="113">
         <f>O6+O7</f>
         <v>3248000000</v>
       </c>
-      <c r="P19" s="41"/>
-    </row>
-    <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="106" t="str" cm="1">
-        <f t="array" ref="A20">_FV(A1,"Description")</f>
-        <v>Jabil Inc. is a provider of manufacturing services and solutions. The Company provides comprehensive electronics design, production and product management services to companies in various industries and end markets. The Company has two segments: Electronics Manufacturing Services (EMS) and Diversified Manufacturing Services (DMS). EMS segment is focused on leveraging information technology (IT), supply chain design and engineering, technologies centered on core electronics, sharing of its manufacturing infrastructure and the ability to serve a range of markets. EMS segment produces product to the customers primarily in the fifth generation, wireless and cloud, digital print and retail, industrial and semi-cap, and networking and storage industries. DMS segment is focused on providing engineering solutions, with a focus on material sciences, technologies and healthcare. DMS segment includes customers primarily in the automotive and transportation, connected devices, and other.</v>
-      </c>
-      <c r="B20" s="106"/>
-      <c r="C20" s="106"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="70" t="s">
-        <v>250</v>
-      </c>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="56" t="s">
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+    </row>
+    <row r="20" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="105" t="s">
         <v>201</v>
       </c>
-      <c r="O20" s="85" cm="1">
+      <c r="O20" s="113" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>17721341560</v>
-      </c>
-      <c r="P20" s="41"/>
-    </row>
-    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="106"/>
-      <c r="B21" s="106"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="56" t="s">
+        <v>14959341092</v>
+      </c>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+    </row>
+    <row r="21" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="98" t="str" cm="1">
+        <f t="array" ref="A21">_FV(A1,"Industry")</f>
+        <v>Electronic Equipment &amp; Parts</v>
+      </c>
+      <c r="B21" s="98"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="99" cm="1">
+        <f t="array" ref="D21">_FV(A1,"Year incorporated",TRUE)</f>
+        <v>1992</v>
+      </c>
+      <c r="E21" s="99"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="105" t="s">
+        <v>245</v>
+      </c>
+      <c r="O21" s="113">
+        <f>O19+O20</f>
+        <v>18207341092</v>
+      </c>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+    </row>
+    <row r="22" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="43" t="str" cm="1">
+        <f t="array" ref="A22">_FV(A1,"Description")</f>
+        <v>Jabil Inc. is a manufacturing solutions provider. The Company provides comprehensive electronics design, production and product management services to companies in various industries and end markets. It operates through two segments: Electronics Manufacturing Services (EMS) and Diversified Manufacturing Services (DMS). EMS segment is focused on leveraging information technology, supply chain design and engineering, technologies centered on core electronics, utilizing its manufacturing infrastructure and its ability to serve a broad range of end markets. EMS segment includes customers in the fifth generation (5G), wireless and cloud, digital print and retail, industrial and semi-capital equipment, and networking and storage industries. DMS segment provides engineering solutions, which is focused on material sciences, machining, tooling and others. DMS segment includes customers in the automotive and transportation, connected devices, healthcare and packaging, and mobility industries.</v>
+      </c>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="107" t="s">
         <v>246</v>
       </c>
-      <c r="O21" s="85">
-        <f>O19+O20</f>
-        <v>20969341560</v>
-      </c>
-      <c r="P21" s="41"/>
-    </row>
-    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="106"/>
-      <c r="B22" s="106"/>
-      <c r="C22" s="106"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="66" t="s">
+      <c r="O22" s="114">
+        <f>(O19/O21)</f>
+        <v>0.17838958382710349</v>
+      </c>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+    </row>
+    <row r="23" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="111" t="s">
         <v>247</v>
       </c>
-      <c r="O22" s="86">
-        <f>(O19/O21)</f>
-        <v>0.15489279864636818</v>
-      </c>
-      <c r="P22" s="41"/>
-    </row>
-    <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="106"/>
-      <c r="B23" s="106"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="70"/>
-      <c r="N23" s="82" t="s">
+      <c r="O23" s="115">
+        <f>O20/O21</f>
+        <v>0.82161041617289654</v>
+      </c>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+    </row>
+    <row r="24" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="116" t="s">
         <v>248</v>
       </c>
-      <c r="O23" s="87">
-        <f>O20/O21</f>
-        <v>0.84510720135363182</v>
-      </c>
-      <c r="P23" s="41"/>
-    </row>
-    <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="106"/>
-      <c r="B24" s="106"/>
-      <c r="C24" s="106"/>
-      <c r="D24" s="106"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="70"/>
-      <c r="N24" s="107" t="s">
-        <v>249</v>
-      </c>
-      <c r="O24" s="108"/>
-      <c r="P24" s="41"/>
-    </row>
-    <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="106"/>
-      <c r="B25" s="106"/>
-      <c r="C25" s="106"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="70"/>
-      <c r="L25" s="70"/>
-      <c r="M25" s="70"/>
-      <c r="N25" s="109">
+      <c r="O24" s="117"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+    </row>
+    <row r="25" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="118">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.7640864500471094E-2</v>
-      </c>
-      <c r="O25" s="110"/>
-      <c r="P25" s="41"/>
-    </row>
-    <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="106"/>
-      <c r="B26" s="106"/>
-      <c r="C26" s="106"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="70"/>
-      <c r="M26" s="70"/>
-      <c r="N26" s="70"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
-    </row>
-    <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="106"/>
-      <c r="B27" s="106"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="70"/>
-      <c r="N27" s="70"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="41"/>
-    </row>
-    <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="70"/>
-      <c r="B28" s="70"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="70"/>
-      <c r="M28" s="70"/>
-      <c r="N28" s="70"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41"/>
-    </row>
-    <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="70"/>
-      <c r="B29" s="70"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="70"/>
-      <c r="N29" s="70"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="41"/>
-    </row>
-    <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="70"/>
-      <c r="B30" s="70"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="70"/>
-      <c r="M30" s="70"/>
-      <c r="N30" s="70"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="41"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="41"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="41"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="41"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="70"/>
-      <c r="B33" s="70"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="70"/>
-      <c r="K33" s="70"/>
-      <c r="L33" s="70"/>
-      <c r="M33" s="70"/>
-      <c r="N33" s="70"/>
-      <c r="O33" s="70"/>
-      <c r="P33" s="70"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="70"/>
-      <c r="B34" s="70"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="70"/>
-      <c r="K34" s="70"/>
-      <c r="L34" s="70"/>
-      <c r="M34" s="70"/>
-      <c r="N34" s="70"/>
-      <c r="O34" s="70"/>
-      <c r="P34" s="70"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="70"/>
-      <c r="B35" s="70"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="70"/>
-      <c r="H35" s="70"/>
-      <c r="I35" s="70"/>
-      <c r="J35" s="70"/>
-      <c r="K35" s="70"/>
-      <c r="L35" s="70"/>
-      <c r="M35" s="70"/>
-      <c r="N35" s="70"/>
-      <c r="O35" s="70"/>
-      <c r="P35" s="70"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="70"/>
-      <c r="B36" s="70"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="70"/>
-      <c r="I36" s="70"/>
-      <c r="J36" s="70"/>
-      <c r="K36" s="70"/>
-      <c r="L36" s="70"/>
-      <c r="M36" s="70"/>
-      <c r="N36" s="70"/>
-      <c r="O36" s="70"/>
-      <c r="P36" s="70"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="70"/>
-      <c r="B37" s="70"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="70"/>
-      <c r="I37" s="70"/>
-      <c r="J37" s="70"/>
-      <c r="K37" s="70"/>
-      <c r="L37" s="70"/>
-      <c r="M37" s="70"/>
-      <c r="N37" s="70"/>
-      <c r="O37" s="70"/>
-      <c r="P37" s="70"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="70"/>
-      <c r="B38" s="70"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="70"/>
-      <c r="I38" s="70"/>
-      <c r="J38" s="70"/>
-      <c r="K38" s="70"/>
-      <c r="L38" s="70"/>
-      <c r="M38" s="70"/>
-      <c r="N38" s="70"/>
-      <c r="O38" s="70"/>
-      <c r="P38" s="70"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="70"/>
-      <c r="B39" s="70"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="70"/>
-      <c r="J39" s="70"/>
-      <c r="K39" s="70"/>
-      <c r="L39" s="70"/>
-      <c r="M39" s="70"/>
-      <c r="N39" s="70"/>
-      <c r="O39" s="70"/>
-      <c r="P39" s="70"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="70"/>
-      <c r="B40" s="70"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="70"/>
-      <c r="J40" s="70"/>
-      <c r="K40" s="70"/>
-      <c r="L40" s="70"/>
-      <c r="M40" s="70"/>
-      <c r="N40" s="70"/>
-      <c r="O40" s="70"/>
-      <c r="P40" s="70"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="70"/>
-      <c r="B41" s="70"/>
-      <c r="C41" s="70"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="70"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="70"/>
-      <c r="H41" s="70"/>
-      <c r="I41" s="70"/>
-      <c r="J41" s="70"/>
-      <c r="K41" s="70"/>
-      <c r="L41" s="70"/>
-      <c r="M41" s="70"/>
-      <c r="N41" s="70"/>
-      <c r="O41" s="70"/>
-      <c r="P41" s="70"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="70"/>
-      <c r="B42" s="70"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="70"/>
-      <c r="J42" s="70"/>
-      <c r="K42" s="70"/>
-      <c r="L42" s="70"/>
-      <c r="M42" s="70"/>
-      <c r="N42" s="70"/>
-      <c r="O42" s="70"/>
-      <c r="P42" s="70"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="70"/>
-      <c r="B43" s="70"/>
-      <c r="C43" s="70"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="70"/>
-      <c r="H43" s="70"/>
-      <c r="I43" s="70"/>
-      <c r="J43" s="70"/>
-      <c r="K43" s="70"/>
-      <c r="L43" s="70"/>
-      <c r="M43" s="70"/>
-      <c r="N43" s="70"/>
-      <c r="O43" s="70"/>
-      <c r="P43" s="70"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="70"/>
-      <c r="B44" s="70"/>
-      <c r="C44" s="70"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="70"/>
-      <c r="H44" s="70"/>
-      <c r="I44" s="70"/>
-      <c r="J44" s="70"/>
-      <c r="K44" s="70"/>
-      <c r="L44" s="70"/>
-      <c r="M44" s="70"/>
-      <c r="N44" s="70"/>
-      <c r="O44" s="70"/>
-      <c r="P44" s="70"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="70"/>
-      <c r="B45" s="70"/>
-      <c r="C45" s="70"/>
-      <c r="D45" s="70"/>
-      <c r="E45" s="70"/>
-      <c r="F45" s="70"/>
-      <c r="G45" s="70"/>
-      <c r="H45" s="70"/>
-      <c r="I45" s="70"/>
-      <c r="J45" s="70"/>
-      <c r="K45" s="70"/>
-      <c r="L45" s="70"/>
-      <c r="M45" s="70"/>
-      <c r="N45" s="70"/>
-      <c r="O45" s="70"/>
-      <c r="P45" s="70"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="70"/>
-      <c r="B46" s="70"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="70"/>
-      <c r="H46" s="70"/>
-      <c r="I46" s="70"/>
-      <c r="J46" s="70"/>
-      <c r="K46" s="70"/>
-      <c r="L46" s="70"/>
-      <c r="M46" s="70"/>
-      <c r="N46" s="70"/>
-      <c r="O46" s="70"/>
-      <c r="P46" s="70"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="70"/>
-      <c r="B47" s="70"/>
-      <c r="C47" s="70"/>
-      <c r="D47" s="70"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="70"/>
-      <c r="G47" s="70"/>
-      <c r="H47" s="70"/>
-      <c r="I47" s="70"/>
-      <c r="J47" s="70"/>
-      <c r="K47" s="70"/>
-      <c r="L47" s="70"/>
-      <c r="M47" s="70"/>
-      <c r="N47" s="70"/>
-      <c r="O47" s="70"/>
-      <c r="P47" s="70"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="70"/>
-      <c r="B48" s="70"/>
-      <c r="C48" s="70"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="70"/>
-      <c r="F48" s="70"/>
-      <c r="G48" s="70"/>
-      <c r="H48" s="70"/>
-      <c r="I48" s="70"/>
-      <c r="J48" s="70"/>
-      <c r="K48" s="70"/>
-      <c r="L48" s="70"/>
-      <c r="M48" s="70"/>
-      <c r="N48" s="70"/>
-      <c r="O48" s="70"/>
-      <c r="P48" s="70"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="70"/>
-      <c r="B49" s="70"/>
-      <c r="C49" s="70"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="70"/>
-      <c r="G49" s="70"/>
-      <c r="H49" s="70"/>
-      <c r="I49" s="70"/>
-      <c r="J49" s="70"/>
-      <c r="K49" s="70"/>
-      <c r="L49" s="70"/>
-      <c r="M49" s="70"/>
-      <c r="N49" s="70"/>
-      <c r="O49" s="70"/>
-      <c r="P49" s="70"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="70"/>
-      <c r="B50" s="70"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="70"/>
-      <c r="G50" s="70"/>
-      <c r="H50" s="70"/>
-      <c r="I50" s="70"/>
-      <c r="J50" s="70"/>
-      <c r="K50" s="70"/>
-      <c r="L50" s="70"/>
-      <c r="M50" s="70"/>
-      <c r="N50" s="70"/>
-      <c r="O50" s="70"/>
-      <c r="P50" s="70"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="70"/>
-      <c r="B51" s="70"/>
-      <c r="C51" s="70"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="70"/>
-      <c r="F51" s="70"/>
-      <c r="G51" s="70"/>
-      <c r="H51" s="70"/>
-      <c r="I51" s="70"/>
-      <c r="J51" s="70"/>
-      <c r="K51" s="70"/>
-      <c r="L51" s="70"/>
-      <c r="M51" s="70"/>
-      <c r="N51" s="70"/>
-      <c r="O51" s="70"/>
-      <c r="P51" s="70"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="70"/>
-      <c r="B52" s="70"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="70"/>
-      <c r="H52" s="70"/>
-      <c r="I52" s="70"/>
-      <c r="J52" s="70"/>
-      <c r="K52" s="70"/>
-      <c r="L52" s="70"/>
-      <c r="M52" s="70"/>
-      <c r="N52" s="70"/>
-      <c r="O52" s="70"/>
-      <c r="P52" s="70"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="70"/>
-      <c r="B53" s="70"/>
-      <c r="C53" s="70"/>
-      <c r="D53" s="70"/>
-      <c r="E53" s="70"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="70"/>
-      <c r="H53" s="70"/>
-      <c r="I53" s="70"/>
-      <c r="J53" s="70"/>
-      <c r="K53" s="70"/>
-      <c r="L53" s="70"/>
-      <c r="M53" s="70"/>
-      <c r="N53" s="70"/>
-      <c r="O53" s="70"/>
-      <c r="P53" s="70"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="70"/>
-      <c r="B54" s="70"/>
-      <c r="C54" s="70"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="70"/>
-      <c r="F54" s="70"/>
-      <c r="G54" s="70"/>
-      <c r="H54" s="70"/>
-      <c r="I54" s="70"/>
-      <c r="J54" s="70"/>
-      <c r="K54" s="70"/>
-      <c r="L54" s="70"/>
-      <c r="M54" s="70"/>
-      <c r="N54" s="70"/>
-      <c r="O54" s="70"/>
-      <c r="P54" s="70"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="70"/>
-      <c r="B55" s="70"/>
-      <c r="C55" s="70"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="70"/>
-      <c r="F55" s="70"/>
-      <c r="G55" s="70"/>
-      <c r="H55" s="70"/>
-      <c r="I55" s="70"/>
-      <c r="J55" s="70"/>
-      <c r="K55" s="70"/>
-      <c r="L55" s="70"/>
-      <c r="M55" s="70"/>
-      <c r="N55" s="70"/>
-      <c r="O55" s="70"/>
-      <c r="P55" s="70"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="70"/>
-      <c r="B56" s="70"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="70"/>
-      <c r="H56" s="70"/>
-      <c r="I56" s="70"/>
-      <c r="J56" s="70"/>
-      <c r="K56" s="70"/>
-      <c r="L56" s="70"/>
-      <c r="M56" s="70"/>
-      <c r="N56" s="70"/>
-      <c r="O56" s="70"/>
-      <c r="P56" s="70"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="70"/>
-      <c r="B57" s="70"/>
-      <c r="C57" s="70"/>
-      <c r="D57" s="70"/>
-      <c r="E57" s="70"/>
-      <c r="F57" s="70"/>
-      <c r="G57" s="70"/>
-      <c r="H57" s="70"/>
-      <c r="I57" s="70"/>
-      <c r="J57" s="70"/>
-      <c r="K57" s="70"/>
-      <c r="L57" s="70"/>
-      <c r="M57" s="70"/>
-      <c r="N57" s="70"/>
-      <c r="O57" s="70"/>
-      <c r="P57" s="70"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="70"/>
-      <c r="B58" s="70"/>
-      <c r="C58" s="70"/>
-      <c r="D58" s="70"/>
-      <c r="E58" s="70"/>
-      <c r="F58" s="70"/>
-      <c r="G58" s="70"/>
-      <c r="H58" s="70"/>
-      <c r="I58" s="70"/>
-      <c r="J58" s="70"/>
-      <c r="K58" s="70"/>
-      <c r="L58" s="70"/>
-      <c r="M58" s="70"/>
-      <c r="N58" s="70"/>
-      <c r="O58" s="70"/>
-      <c r="P58" s="70"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="70"/>
-      <c r="B59" s="70"/>
-      <c r="C59" s="70"/>
-      <c r="D59" s="70"/>
-      <c r="E59" s="70"/>
-      <c r="F59" s="70"/>
-      <c r="G59" s="70"/>
-      <c r="H59" s="70"/>
-      <c r="I59" s="70"/>
-      <c r="J59" s="70"/>
-      <c r="K59" s="70"/>
-      <c r="L59" s="70"/>
-      <c r="M59" s="70"/>
-      <c r="N59" s="70"/>
-      <c r="O59" s="70"/>
-      <c r="P59" s="70"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="70"/>
-      <c r="B60" s="70"/>
-      <c r="C60" s="70"/>
-      <c r="D60" s="70"/>
-      <c r="E60" s="70"/>
-      <c r="F60" s="70"/>
-      <c r="G60" s="70"/>
-      <c r="H60" s="70"/>
-      <c r="I60" s="70"/>
-      <c r="J60" s="70"/>
-      <c r="K60" s="70"/>
-      <c r="L60" s="70"/>
-      <c r="M60" s="70"/>
-      <c r="N60" s="70"/>
-      <c r="O60" s="70"/>
-      <c r="P60" s="70"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="70"/>
-      <c r="B61" s="70"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="70"/>
-      <c r="E61" s="70"/>
-      <c r="F61" s="70"/>
-      <c r="G61" s="70"/>
-      <c r="H61" s="70"/>
-      <c r="I61" s="70"/>
-      <c r="J61" s="70"/>
-      <c r="K61" s="70"/>
-      <c r="L61" s="70"/>
-      <c r="M61" s="70"/>
-      <c r="N61" s="70"/>
-      <c r="O61" s="70"/>
-      <c r="P61" s="70"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O62" s="41"/>
-      <c r="P62" s="41"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O63" s="41"/>
-      <c r="P63" s="41"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O64" s="41"/>
-      <c r="P64" s="41"/>
+        <v>8.4921068259334626E-2</v>
+      </c>
+      <c r="O25" s="119"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+    </row>
+    <row r="26" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="43"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+    </row>
+    <row r="27" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
+    </row>
+    <row r="28" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="43"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+    </row>
+    <row r="29" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="43"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
+    </row>
+    <row r="30" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="43"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="35"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="35"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" s="40"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="35"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" s="40"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="35"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" s="40"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" s="40"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="35"/>
+      <c r="R37" s="35"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" s="40"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="35"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="40"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="35"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="40"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="35"/>
+      <c r="R40" s="35"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" s="40"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="35"/>
+      <c r="R41" s="35"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" s="40"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="40"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="35"/>
+      <c r="R42" s="35"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" s="40"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="40"/>
+      <c r="L43" s="40"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="40"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="35"/>
+      <c r="R43" s="35"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" s="40"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="40"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="40"/>
+      <c r="N44" s="40"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="35"/>
+      <c r="R44" s="35"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" s="40"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="40"/>
+      <c r="O45" s="40"/>
+      <c r="P45" s="40"/>
+      <c r="Q45" s="35"/>
+      <c r="R45" s="35"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" s="40"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="40"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="40"/>
+      <c r="N46" s="40"/>
+      <c r="O46" s="40"/>
+      <c r="P46" s="40"/>
+      <c r="Q46" s="35"/>
+      <c r="R46" s="35"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" s="40"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="40"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="40"/>
+      <c r="O47" s="40"/>
+      <c r="P47" s="40"/>
+      <c r="Q47" s="35"/>
+      <c r="R47" s="35"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" s="40"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="40"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="40"/>
+      <c r="N48" s="40"/>
+      <c r="O48" s="40"/>
+      <c r="P48" s="40"/>
+      <c r="Q48" s="35"/>
+      <c r="R48" s="35"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" s="40"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="40"/>
+      <c r="L49" s="40"/>
+      <c r="M49" s="40"/>
+      <c r="N49" s="40"/>
+      <c r="O49" s="40"/>
+      <c r="P49" s="40"/>
+      <c r="Q49" s="35"/>
+      <c r="R49" s="35"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" s="40"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="40"/>
+      <c r="L50" s="40"/>
+      <c r="M50" s="40"/>
+      <c r="N50" s="40"/>
+      <c r="O50" s="40"/>
+      <c r="P50" s="40"/>
+      <c r="Q50" s="35"/>
+      <c r="R50" s="35"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" s="40"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="40"/>
+      <c r="N51" s="40"/>
+      <c r="O51" s="40"/>
+      <c r="P51" s="40"/>
+      <c r="Q51" s="35"/>
+      <c r="R51" s="35"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" s="40"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="40"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="40"/>
+      <c r="O52" s="40"/>
+      <c r="P52" s="40"/>
+      <c r="Q52" s="35"/>
+      <c r="R52" s="35"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53" s="40"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="40"/>
+      <c r="L53" s="40"/>
+      <c r="M53" s="40"/>
+      <c r="N53" s="40"/>
+      <c r="O53" s="40"/>
+      <c r="P53" s="40"/>
+      <c r="Q53" s="35"/>
+      <c r="R53" s="35"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54" s="40"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="40"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="40"/>
+      <c r="N54" s="40"/>
+      <c r="O54" s="40"/>
+      <c r="P54" s="40"/>
+      <c r="Q54" s="35"/>
+      <c r="R54" s="35"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55" s="40"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="40"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="40"/>
+      <c r="N55" s="40"/>
+      <c r="O55" s="40"/>
+      <c r="P55" s="40"/>
+      <c r="Q55" s="35"/>
+      <c r="R55" s="35"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56" s="40"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="40"/>
+      <c r="L56" s="40"/>
+      <c r="M56" s="40"/>
+      <c r="N56" s="40"/>
+      <c r="O56" s="40"/>
+      <c r="P56" s="40"/>
+      <c r="Q56" s="35"/>
+      <c r="R56" s="35"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A57" s="40"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="40"/>
+      <c r="I57" s="40"/>
+      <c r="J57" s="40"/>
+      <c r="K57" s="40"/>
+      <c r="L57" s="40"/>
+      <c r="M57" s="40"/>
+      <c r="N57" s="40"/>
+      <c r="O57" s="40"/>
+      <c r="P57" s="40"/>
+      <c r="Q57" s="35"/>
+      <c r="R57" s="35"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A58" s="40"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="40"/>
+      <c r="I58" s="40"/>
+      <c r="J58" s="40"/>
+      <c r="K58" s="40"/>
+      <c r="L58" s="40"/>
+      <c r="M58" s="40"/>
+      <c r="N58" s="40"/>
+      <c r="O58" s="40"/>
+      <c r="P58" s="40"/>
+      <c r="Q58" s="35"/>
+      <c r="R58" s="35"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A59" s="40"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="40"/>
+      <c r="K59" s="40"/>
+      <c r="L59" s="40"/>
+      <c r="M59" s="40"/>
+      <c r="N59" s="40"/>
+      <c r="O59" s="40"/>
+      <c r="P59" s="40"/>
+      <c r="Q59" s="35"/>
+      <c r="R59" s="35"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A60" s="40"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="40"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="40"/>
+      <c r="L60" s="40"/>
+      <c r="M60" s="40"/>
+      <c r="N60" s="40"/>
+      <c r="O60" s="40"/>
+      <c r="P60" s="40"/>
+      <c r="Q60" s="35"/>
+      <c r="R60" s="35"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A61" s="40"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="40"/>
+      <c r="H61" s="40"/>
+      <c r="I61" s="40"/>
+      <c r="J61" s="40"/>
+      <c r="K61" s="40"/>
+      <c r="L61" s="40"/>
+      <c r="M61" s="40"/>
+      <c r="N61" s="40"/>
+      <c r="O61" s="40"/>
+      <c r="P61" s="40"/>
+      <c r="Q61" s="35"/>
+      <c r="R61" s="35"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O62" s="35"/>
+      <c r="P62" s="35"/>
+      <c r="Q62" s="35"/>
+      <c r="R62" s="35"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O63" s="35"/>
+      <c r="P63" s="35"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O64" s="35"/>
+      <c r="P64" s="35"/>
     </row>
     <row r="65" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O65" s="41"/>
-      <c r="P65" s="41"/>
+      <c r="O65" s="35"/>
+      <c r="P65" s="35"/>
     </row>
     <row r="66" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O66" s="41"/>
-      <c r="P66" s="41"/>
+      <c r="O66" s="35"/>
+      <c r="P66" s="35"/>
     </row>
     <row r="67" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O67" s="41"/>
-      <c r="P67" s="41"/>
+      <c r="O67" s="35"/>
+      <c r="P67" s="35"/>
     </row>
     <row r="68" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O68" s="41"/>
-      <c r="P68" s="41"/>
+      <c r="O68" s="35"/>
+      <c r="P68" s="35"/>
     </row>
     <row r="69" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O69" s="41"/>
-      <c r="P69" s="41"/>
+      <c r="O69" s="35"/>
+      <c r="P69" s="35"/>
     </row>
     <row r="70" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O70" s="41"/>
-      <c r="P70" s="41"/>
+      <c r="O70" s="35"/>
+      <c r="P70" s="35"/>
     </row>
     <row r="71" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O71" s="41"/>
-      <c r="P71" s="41"/>
+      <c r="O71" s="35"/>
+      <c r="P71" s="35"/>
     </row>
     <row r="72" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O72" s="41"/>
-      <c r="P72" s="41"/>
+      <c r="O72" s="35"/>
+      <c r="P72" s="35"/>
     </row>
     <row r="73" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O73" s="41"/>
-      <c r="P73" s="41"/>
+      <c r="O73" s="35"/>
+      <c r="P73" s="35"/>
     </row>
     <row r="74" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O74" s="41"/>
-      <c r="P74" s="41"/>
+      <c r="O74" s="35"/>
+      <c r="P74" s="35"/>
     </row>
     <row r="75" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O75" s="41"/>
-      <c r="P75" s="41"/>
+      <c r="O75" s="35"/>
+      <c r="P75" s="35"/>
     </row>
     <row r="76" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O76" s="41"/>
-      <c r="P76" s="41"/>
+      <c r="O76" s="35"/>
+      <c r="P76" s="35"/>
     </row>
     <row r="77" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O77" s="41"/>
-      <c r="P77" s="41"/>
+      <c r="O77" s="35"/>
+      <c r="P77" s="35"/>
     </row>
     <row r="78" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O78" s="41"/>
-      <c r="P78" s="41"/>
+      <c r="O78" s="35"/>
+      <c r="P78" s="35"/>
     </row>
     <row r="79" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O79" s="41"/>
-      <c r="P79" s="41"/>
+      <c r="O79" s="35"/>
+      <c r="P79" s="35"/>
     </row>
     <row r="80" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O80" s="41"/>
-      <c r="P80" s="41"/>
+      <c r="O80" s="35"/>
+      <c r="P80" s="35"/>
     </row>
     <row r="81" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O81" s="41"/>
-      <c r="P81" s="41"/>
+      <c r="O81" s="35"/>
+      <c r="P81" s="35"/>
     </row>
     <row r="82" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O82" s="41"/>
-      <c r="P82" s="41"/>
+      <c r="O82" s="35"/>
+      <c r="P82" s="35"/>
     </row>
     <row r="83" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O83" s="41"/>
-      <c r="P83" s="41"/>
+      <c r="O83" s="35"/>
+      <c r="P83" s="35"/>
     </row>
     <row r="84" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O84" s="41"/>
-      <c r="P84" s="41"/>
+      <c r="O84" s="35"/>
+      <c r="P84" s="35"/>
     </row>
     <row r="85" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O85" s="41"/>
-      <c r="P85" s="41"/>
+      <c r="O85" s="35"/>
+      <c r="P85" s="35"/>
     </row>
     <row r="86" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O86" s="41"/>
-      <c r="P86" s="41"/>
+      <c r="O86" s="35"/>
+      <c r="P86" s="35"/>
     </row>
     <row r="87" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O87" s="41"/>
-      <c r="P87" s="41"/>
+      <c r="O87" s="35"/>
+      <c r="P87" s="35"/>
     </row>
     <row r="88" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O88" s="41"/>
-      <c r="P88" s="41"/>
+      <c r="O88" s="35"/>
+      <c r="P88" s="35"/>
     </row>
     <row r="89" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O89" s="41"/>
-      <c r="P89" s="41"/>
+      <c r="O89" s="35"/>
+      <c r="P89" s="35"/>
     </row>
     <row r="90" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O90" s="41"/>
-      <c r="P90" s="41"/>
+      <c r="O90" s="35"/>
+      <c r="P90" s="35"/>
     </row>
     <row r="91" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O91" s="41"/>
-      <c r="P91" s="41"/>
+      <c r="O91" s="35"/>
+      <c r="P91" s="35"/>
     </row>
     <row r="92" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O92" s="41"/>
-      <c r="P92" s="41"/>
+      <c r="O92" s="35"/>
+      <c r="P92" s="35"/>
     </row>
     <row r="93" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O93" s="41"/>
-      <c r="P93" s="41"/>
+      <c r="O93" s="35"/>
+      <c r="P93" s="35"/>
     </row>
     <row r="94" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O94" s="41"/>
-      <c r="P94" s="41"/>
+      <c r="O94" s="35"/>
+      <c r="P94" s="35"/>
     </row>
     <row r="95" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O95" s="41"/>
-      <c r="P95" s="41"/>
+      <c r="O95" s="35"/>
+      <c r="P95" s="35"/>
     </row>
     <row r="96" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O96" s="41"/>
-      <c r="P96" s="41"/>
+      <c r="O96" s="35"/>
+      <c r="P96" s="35"/>
     </row>
     <row r="97" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O97" s="41"/>
-      <c r="P97" s="41"/>
+      <c r="O97" s="35"/>
+      <c r="P97" s="35"/>
     </row>
     <row r="98" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O98" s="41"/>
-      <c r="P98" s="41"/>
+      <c r="O98" s="35"/>
+      <c r="P98" s="35"/>
     </row>
     <row r="99" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O99" s="41"/>
-      <c r="P99" s="41"/>
+      <c r="O99" s="35"/>
+      <c r="P99" s="35"/>
     </row>
     <row r="100" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O100" s="41"/>
-      <c r="P100" s="41"/>
+      <c r="O100" s="35"/>
+      <c r="P100" s="35"/>
     </row>
     <row r="101" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O101" s="41"/>
-      <c r="P101" s="41"/>
+      <c r="O101" s="35"/>
+      <c r="P101" s="35"/>
     </row>
     <row r="102" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O102" s="41"/>
-      <c r="P102" s="41"/>
+      <c r="O102" s="35"/>
+      <c r="P102" s="35"/>
     </row>
     <row r="103" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O103" s="41"/>
-      <c r="P103" s="41"/>
+      <c r="O103" s="35"/>
+      <c r="P103" s="35"/>
     </row>
     <row r="104" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O104" s="41"/>
-      <c r="P104" s="41"/>
+      <c r="O104" s="35"/>
+      <c r="P104" s="35"/>
     </row>
     <row r="105" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O105" s="41"/>
-      <c r="P105" s="41"/>
+      <c r="O105" s="35"/>
+      <c r="P105" s="35"/>
     </row>
     <row r="106" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O106" s="41"/>
-      <c r="P106" s="41"/>
+      <c r="O106" s="35"/>
+      <c r="P106" s="35"/>
     </row>
     <row r="107" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O107" s="41"/>
-      <c r="P107" s="41"/>
+      <c r="O107" s="35"/>
+      <c r="P107" s="35"/>
     </row>
     <row r="108" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O108" s="41"/>
-      <c r="P108" s="41"/>
+      <c r="O108" s="35"/>
+      <c r="P108" s="35"/>
     </row>
     <row r="109" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O109" s="41"/>
-      <c r="P109" s="41"/>
+      <c r="O109" s="35"/>
+      <c r="P109" s="35"/>
     </row>
     <row r="110" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O110" s="41"/>
-      <c r="P110" s="41"/>
+      <c r="O110" s="35"/>
+      <c r="P110" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A20:E27"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="A1:XFD2"/>
@@ -17439,8 +17797,9 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A22:E30"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NYSE:JBL/explorer/revenue_proj" xr:uid="{E7F9CC20-2F85-5044-9739-57B6DCA92B6D}"/>

--- a/Technology/Hardware/Jabil.xlsx
+++ b/Technology/Hardware/Jabil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA268959-B352-1440-8961-392E52B2A15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438A6E6A-EAF8-F145-8943-2EFB622CCD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1477,9 +1477,6 @@
     <xf numFmtId="9" fontId="4" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1642,27 +1639,6 @@
     <xf numFmtId="9" fontId="17" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1708,6 +1684,30 @@
     <xf numFmtId="10" fontId="20" fillId="9" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1743,7 +1743,10 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1761,7 +1764,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1773,6 +1776,9 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1927,11 +1933,11 @@
     <v>Powered by Refinitiv</v>
     <v>141.38</v>
     <v>64.739999999999995</v>
-    <v>1.3167</v>
-    <v>1.6</v>
-    <v>1.3873999999999999E-2</v>
-    <v>3.68</v>
-    <v>3.1476999999999998E-2</v>
+    <v>1.3762000000000001</v>
+    <v>2.58</v>
+    <v>2.2161E-2</v>
+    <v>0.59</v>
+    <v>4.9580000000000006E-3</v>
     <v>USD</v>
     <v>Jabil Inc. is a manufacturing solutions provider. The Company provides comprehensive electronics design, production and product management services to companies in various industries and end markets. It operates through two segments: Electronics Manufacturing Services (EMS) and Diversified Manufacturing Services (DMS). EMS segment is focused on leveraging information technology, supply chain design and engineering, technologies centered on core electronics, utilizing its manufacturing infrastructure and its ability to serve a broad range of end markets. EMS segment includes customers in the fifth generation (5G), wireless and cloud, digital print and retail, industrial and semi-capital equipment, and networking and storage industries. DMS segment provides engineering solutions, which is focused on material sciences, machining, tooling and others. DMS segment includes customers in the automotive and transportation, connected devices, healthcare and packaging, and mobility industries.</v>
     <v>236000</v>
@@ -1939,26 +1945,26 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>10800 Roosevelt Boulevard North, ST PETERSBURG, FL, 33716 US</v>
-    <v>118.73</v>
+    <v>119.86</v>
     <v>3</v>
     <v>Electronic Equipment &amp; Parts</v>
     <v>Stock</v>
-    <v>45262.040022800778</v>
+    <v>45269.040392187497</v>
     <v>4</v>
-    <v>113.505</v>
-    <v>14959341092</v>
+    <v>116.38</v>
+    <v>14895360000</v>
     <v>JABIL INC.</v>
     <v>JABIL INC.</v>
-    <v>114.79</v>
-    <v>19.1798</v>
-    <v>115.32</v>
-    <v>116.92</v>
-    <v>120.59</v>
+    <v>116.38</v>
+    <v>19.3628</v>
+    <v>116.42</v>
+    <v>119</v>
+    <v>119.59</v>
     <v>127945100</v>
     <v>JBL</v>
     <v>JABIL INC. (XNYS:JBL)</v>
-    <v>2232265</v>
-    <v>1685510</v>
+    <v>1833573</v>
+    <v>1750769</v>
     <v>1992</v>
   </rv>
   <rv s="4">
@@ -2143,9 +2149,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -15911,7 +15917,7 @@
   <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15919,164 +15925,164 @@
     <col min="1" max="18" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="100" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="100" t="e" vm="1">
+    <row r="1" spans="1:18" s="112" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="112" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="100" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:18" s="112" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="68" cm="1">
+      <c r="A3" s="67" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>14959341092</v>
-      </c>
-      <c r="B3" s="69" t="s">
+        <v>14895360000</v>
+      </c>
+      <c r="B3" s="68" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="70">
+      <c r="C3" s="69">
         <f>Financials!O8*0.01</f>
         <v>8.2599999999999993E-2</v>
       </c>
-      <c r="D3" s="69" t="s">
+      <c r="D3" s="68" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="70">
+      <c r="E3" s="69">
         <f>SUM(C11:E11)/3</f>
         <v>8.4590479276234865E-2</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="F3" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="72">
+      <c r="G3" s="71">
         <f>SUM(Financials!K129:N129)/4</f>
         <v>-3.8114824137343961E-2</v>
       </c>
-      <c r="H3" s="71" t="s">
+      <c r="H3" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="I3" s="73">
+      <c r="I3" s="72">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>27694349386.728153</v>
-      </c>
-      <c r="J3" s="74" t="s">
+        <v>26611877929.492035</v>
+      </c>
+      <c r="J3" s="73" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="75">
+      <c r="K3" s="74">
         <f>Financials!O172*-1/Model!A3</f>
-        <v>3.0081538834665139E-3</v>
-      </c>
-      <c r="L3" s="76" t="s">
+        <v>3.0210750193348803E-3</v>
+      </c>
+      <c r="L3" s="75" t="s">
         <v>250</v>
       </c>
       <c r="M3" s="35"/>
-      <c r="N3" s="101" t="s">
+      <c r="N3" s="113" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="102"/>
+      <c r="O3" s="114"/>
       <c r="P3" s="35"/>
       <c r="Q3" s="35"/>
       <c r="R3" s="35"/>
     </row>
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="77">
+      <c r="A4" s="76">
         <f>Financials!O56-Financials!O96-Financials!O105</f>
         <v>-1444000000</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="77" t="s">
         <v>207</v>
       </c>
       <c r="C4" s="37">
         <f>Financials!O17*0.01</f>
         <v>4.5899999999999996E-2</v>
       </c>
-      <c r="D4" s="78" t="s">
+      <c r="D4" s="77" t="s">
         <v>208</v>
       </c>
       <c r="E4" s="37">
         <f>SUM(C13:E13)/3</f>
         <v>4.0540823040787135</v>
       </c>
-      <c r="F4" s="79" t="s">
+      <c r="F4" s="78" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="80">
+      <c r="G4" s="79">
         <f>A5*(1+(5*G3))</f>
         <v>103562075.07132557</v>
       </c>
-      <c r="H4" s="79" t="s">
+      <c r="H4" s="78" t="s">
         <v>210</v>
       </c>
       <c r="I4" s="36">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>24433995391.440422</v>
-      </c>
-      <c r="J4" s="79" t="s">
+        <v>23477286063.375328</v>
+      </c>
+      <c r="J4" s="78" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="81" cm="1">
+      <c r="K4" s="80" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>1.3873999999999999E-2</v>
-      </c>
-      <c r="L4" s="82" t="s">
+        <v>2.2161E-2</v>
+      </c>
+      <c r="L4" s="81" t="s">
         <v>251</v>
       </c>
       <c r="M4" s="35"/>
-      <c r="N4" s="103" t="s">
+      <c r="N4" s="115" t="s">
         <v>212</v>
       </c>
-      <c r="O4" s="104"/>
+      <c r="O4" s="116"/>
       <c r="P4" s="35"/>
       <c r="Q4" s="35"/>
       <c r="R4" s="35"/>
     </row>
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="77" cm="1">
+      <c r="A5" s="76" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>127945100</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="77" t="s">
         <v>213</v>
       </c>
       <c r="C5" s="37">
         <f>Financials!O34*0.01</f>
         <v>2.3599999999999999E-2</v>
       </c>
-      <c r="D5" s="83" t="s">
+      <c r="D5" s="82" t="s">
         <v>214</v>
       </c>
       <c r="E5" s="37">
         <f>SUM(C16:E16)/3</f>
         <v>0.19636282529520824</v>
       </c>
-      <c r="F5" s="79" t="s">
+      <c r="F5" s="78" t="s">
         <v>215</v>
       </c>
-      <c r="G5" s="80">
+      <c r="G5" s="79">
         <f>Financials!O56</f>
         <v>1804000000</v>
       </c>
-      <c r="H5" s="79" t="s">
+      <c r="H5" s="78" t="s">
         <v>216</v>
       </c>
       <c r="I5" s="36">
         <f>I4+G5-G6</f>
-        <v>22989995391.440422</v>
-      </c>
-      <c r="J5" s="79" t="s">
+        <v>22033286063.375328</v>
+      </c>
+      <c r="J5" s="78" t="s">
         <v>217</v>
       </c>
-      <c r="K5" s="84" cm="1">
+      <c r="K5" s="83" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>116.92</v>
-      </c>
-      <c r="L5" s="85" t="s">
+        <v>119</v>
+      </c>
+      <c r="L5" s="84" t="s">
         <v>218</v>
       </c>
       <c r="M5" s="35"/>
-      <c r="N5" s="105" t="s">
+      <c r="N5" s="97" t="s">
         <v>219</v>
       </c>
-      <c r="O5" s="106">
+      <c r="O5" s="98">
         <f>Financials!O21</f>
         <v>145000000</v>
       </c>
@@ -16085,53 +16091,53 @@
       <c r="R5" s="35"/>
     </row>
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="86">
+      <c r="A6" s="85">
         <f>O20/F10</f>
-        <v>0.44649418254536771</v>
-      </c>
-      <c r="B6" s="78" t="s">
+        <v>0.44458452722063035</v>
+      </c>
+      <c r="B6" s="77" t="s">
         <v>220</v>
       </c>
       <c r="C6" s="37">
         <f>Financials!O190</f>
         <v>2.2995381735923002E-2</v>
       </c>
-      <c r="D6" s="83" t="s">
+      <c r="D6" s="82" t="s">
         <v>200</v>
       </c>
       <c r="E6" s="37">
         <f>Financials!O33/Financials!O126</f>
         <v>0.28531566096965472</v>
       </c>
-      <c r="F6" s="78" t="s">
+      <c r="F6" s="77" t="s">
         <v>221</v>
       </c>
-      <c r="G6" s="80">
+      <c r="G6" s="79">
         <f>Financials!O96+Financials!O105</f>
         <v>3248000000</v>
       </c>
-      <c r="H6" s="79" t="s">
+      <c r="H6" s="78" t="s">
         <v>222</v>
       </c>
-      <c r="I6" s="81">
+      <c r="I6" s="80">
         <f>N25</f>
-        <v>8.4921068259334626E-2</v>
-      </c>
-      <c r="J6" s="79" t="s">
+        <v>8.7358432741829264E-2</v>
+      </c>
+      <c r="J6" s="78" t="s">
         <v>223</v>
       </c>
       <c r="K6" s="38">
         <f>I5/G4</f>
-        <v>221.99241735554918</v>
-      </c>
-      <c r="L6" s="87" t="s">
+        <v>212.75438956008267</v>
+      </c>
+      <c r="L6" s="86" t="s">
         <v>224</v>
       </c>
       <c r="M6" s="35"/>
-      <c r="N6" s="105" t="s">
+      <c r="N6" s="97" t="s">
         <v>225</v>
       </c>
-      <c r="O6" s="106">
+      <c r="O6" s="98">
         <f>Financials!O96</f>
         <v>104000000</v>
       </c>
@@ -16140,52 +16146,52 @@
       <c r="R6" s="35"/>
     </row>
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="88">
+      <c r="A7" s="87">
         <f>O20/F12</f>
-        <v>12.281889238095237</v>
-      </c>
-      <c r="B7" s="89" t="s">
+        <v>12.229359605911331</v>
+      </c>
+      <c r="B7" s="88" t="s">
         <v>226</v>
       </c>
-      <c r="C7" s="90">
+      <c r="C7" s="89">
         <f>F15/O21</f>
-        <v>7.8704517741452984E-2</v>
-      </c>
-      <c r="D7" s="89" t="s">
+        <v>7.8982062859360117E-2</v>
+      </c>
+      <c r="D7" s="88" t="s">
         <v>227</v>
       </c>
-      <c r="E7" s="91">
+      <c r="E7" s="90">
         <f>(Financials!O16*(1-0.25))/(Financials!O126+Financials!O105+Financials!O96)</f>
         <v>0.19550286181520851</v>
       </c>
-      <c r="F7" s="89" t="s">
+      <c r="F7" s="88" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="92">
+      <c r="G7" s="91">
         <f>(Financials!O96+Financials!O105)/Financials!O126</f>
         <v>1.1328915242413673</v>
       </c>
-      <c r="H7" s="93" t="s">
+      <c r="H7" s="92" t="s">
         <v>228</v>
       </c>
-      <c r="I7" s="94">
+      <c r="I7" s="93">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="95" t="s">
+      <c r="J7" s="94" t="s">
         <v>229</v>
       </c>
-      <c r="K7" s="96">
+      <c r="K7" s="95">
         <f>K6/K5-1</f>
-        <v>0.89866932394414278</v>
-      </c>
-      <c r="L7" s="97" t="s">
+        <v>0.78785201310993846</v>
+      </c>
+      <c r="L7" s="96" t="s">
         <v>230</v>
       </c>
       <c r="M7" s="35"/>
-      <c r="N7" s="105" t="s">
+      <c r="N7" s="97" t="s">
         <v>231</v>
       </c>
-      <c r="O7" s="106">
+      <c r="O7" s="98">
         <f>Financials!O105</f>
         <v>3144000000</v>
       </c>
@@ -16207,10 +16213,10 @@
       <c r="K8" s="35"/>
       <c r="L8" s="35"/>
       <c r="M8" s="35"/>
-      <c r="N8" s="107" t="s">
+      <c r="N8" s="99" t="s">
         <v>212</v>
       </c>
-      <c r="O8" s="108">
+      <c r="O8" s="100">
         <f>O5/(O6+O7)</f>
         <v>4.4642857142857144E-2</v>
       </c>
@@ -16219,41 +16225,41 @@
       <c r="R8" s="35"/>
     </row>
     <row r="9" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="48"/>
-      <c r="B9" s="49">
+      <c r="A9" s="47"/>
+      <c r="B9" s="48">
         <v>2020</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="48">
         <v>2021</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="48">
         <v>2022</v>
       </c>
-      <c r="E9" s="50">
+      <c r="E9" s="49">
         <v>2023</v>
       </c>
-      <c r="F9" s="51">
+      <c r="F9" s="50">
         <v>2024</v>
       </c>
-      <c r="G9" s="52">
+      <c r="G9" s="51">
         <v>2025</v>
       </c>
-      <c r="H9" s="52">
+      <c r="H9" s="51">
         <v>2026</v>
       </c>
-      <c r="I9" s="52">
+      <c r="I9" s="51">
         <v>2027</v>
       </c>
-      <c r="J9" s="53">
+      <c r="J9" s="52">
         <v>2028</v>
       </c>
       <c r="K9" s="40"/>
       <c r="L9" s="40"/>
       <c r="M9" s="40"/>
-      <c r="N9" s="105" t="s">
+      <c r="N9" s="97" t="s">
         <v>232</v>
       </c>
-      <c r="O9" s="106">
+      <c r="O9" s="98">
         <f>Financials!O25</f>
         <v>444000000</v>
       </c>
@@ -16262,43 +16268,43 @@
       <c r="R9" s="35"/>
     </row>
     <row r="10" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="53" t="s">
         <v>233</v>
       </c>
-      <c r="B10" s="55">
+      <c r="B10" s="54">
         <v>27266438000</v>
       </c>
-      <c r="C10" s="55">
+      <c r="C10" s="54">
         <v>29285000000</v>
       </c>
-      <c r="D10" s="55">
+      <c r="D10" s="54">
         <v>33478000000</v>
       </c>
-      <c r="E10" s="56">
+      <c r="E10" s="55">
         <v>34702000000</v>
       </c>
-      <c r="F10" s="55">
+      <c r="F10" s="54">
         <v>33504000000</v>
       </c>
-      <c r="G10" s="55">
+      <c r="G10" s="54">
         <v>34725000000</v>
       </c>
-      <c r="H10" s="55">
+      <c r="H10" s="54">
         <v>35602000000</v>
       </c>
-      <c r="I10" s="55">
+      <c r="I10" s="54">
         <v>36314000000</v>
       </c>
-      <c r="J10" s="56">
+      <c r="J10" s="55">
         <v>37040000000</v>
       </c>
-      <c r="K10" s="57" t="s">
+      <c r="K10" s="56" t="s">
         <v>234</v>
       </c>
-      <c r="N10" s="105" t="s">
+      <c r="N10" s="97" t="s">
         <v>235</v>
       </c>
-      <c r="O10" s="106">
+      <c r="O10" s="98">
         <f>Financials!O24</f>
         <v>1262000000</v>
       </c>
@@ -16307,7 +16313,7 @@
       <c r="R10" s="35"/>
     </row>
     <row r="11" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="58"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="41"/>
       <c r="C11" s="41">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
@@ -16337,20 +16343,20 @@
         <f t="shared" si="0"/>
         <v>1.9998876467614224E-2</v>
       </c>
-      <c r="J11" s="59">
+      <c r="J11" s="58">
         <f t="shared" si="0"/>
         <v>1.9992289475133651E-2</v>
       </c>
-      <c r="K11" s="59">
+      <c r="K11" s="58">
         <f>SUM(F11:J11)/5</f>
         <v>1.3433529866212667E-2</v>
       </c>
       <c r="L11" s="40"/>
       <c r="M11" s="40"/>
-      <c r="N11" s="105" t="s">
+      <c r="N11" s="97" t="s">
         <v>236</v>
       </c>
-      <c r="O11" s="109">
+      <c r="O11" s="101">
         <f>O9/O10</f>
         <v>0.35182250396196513</v>
       </c>
@@ -16359,45 +16365,45 @@
       <c r="R11" s="35"/>
     </row>
     <row r="12" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="55">
+      <c r="B12" s="54">
         <v>53912000</v>
       </c>
-      <c r="C12" s="55">
+      <c r="C12" s="54">
         <v>696000000</v>
       </c>
-      <c r="D12" s="55">
+      <c r="D12" s="54">
         <v>996000000</v>
       </c>
-      <c r="E12" s="55">
+      <c r="E12" s="54">
         <v>818000000</v>
       </c>
-      <c r="F12" s="60">
+      <c r="F12" s="59">
         <v>1218000000</v>
       </c>
-      <c r="G12" s="55">
+      <c r="G12" s="54">
         <v>1289000000</v>
       </c>
-      <c r="H12" s="55">
+      <c r="H12" s="54">
         <v>1384000000</v>
       </c>
-      <c r="I12" s="55">
+      <c r="I12" s="54">
         <v>1411000000</v>
       </c>
-      <c r="J12" s="56">
+      <c r="J12" s="55">
         <v>1440000000</v>
       </c>
-      <c r="K12" s="61" t="s">
+      <c r="K12" s="60" t="s">
         <v>237</v>
       </c>
       <c r="L12" s="40"/>
       <c r="M12" s="40"/>
-      <c r="N12" s="105" t="s">
+      <c r="N12" s="97" t="s">
         <v>238</v>
       </c>
-      <c r="O12" s="109">
+      <c r="O12" s="101">
         <f>O8*(1-O11)</f>
         <v>2.8936495358840842E-2</v>
       </c>
@@ -16406,7 +16412,7 @@
       <c r="R12" s="35"/>
     </row>
     <row r="13" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="58"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="41"/>
       <c r="C13" s="41">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
@@ -16436,127 +16442,127 @@
         <f t="shared" si="1"/>
         <v>1.9508670520231197E-2</v>
       </c>
-      <c r="J13" s="59">
+      <c r="J13" s="58">
         <f t="shared" si="1"/>
         <v>2.0552799433026125E-2</v>
       </c>
-      <c r="K13" s="59">
+      <c r="K13" s="58">
         <f>SUM(F13:J13)/5</f>
         <v>0.13221037009046577</v>
       </c>
       <c r="L13" s="40"/>
       <c r="M13" s="40"/>
-      <c r="N13" s="103" t="s">
+      <c r="N13" s="115" t="s">
         <v>239</v>
       </c>
-      <c r="O13" s="104"/>
+      <c r="O13" s="116"/>
       <c r="P13" s="35"/>
       <c r="Q13" s="35"/>
       <c r="R13" s="35"/>
     </row>
     <row r="14" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="B14" s="45">
+      <c r="B14" s="44">
         <f>B12/B10</f>
         <v>1.977229295590425E-3</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C14" s="44">
         <f t="shared" ref="C14:J14" si="2">C12/C10</f>
         <v>2.3766433327642139E-2</v>
       </c>
-      <c r="D14" s="45">
+      <c r="D14" s="44">
         <f t="shared" si="2"/>
         <v>2.9750881175697474E-2</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="44">
         <f t="shared" si="2"/>
         <v>2.3572128407584578E-2</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F14" s="45">
         <f t="shared" si="2"/>
         <v>3.6353868194842404E-2</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G14" s="44">
         <f t="shared" si="2"/>
         <v>3.7120230381569475E-2</v>
       </c>
-      <c r="H14" s="45">
+      <c r="H14" s="44">
         <f t="shared" si="2"/>
         <v>3.887422054940734E-2</v>
       </c>
-      <c r="I14" s="45">
+      <c r="I14" s="44">
         <f t="shared" si="2"/>
         <v>3.8855537809109435E-2</v>
       </c>
-      <c r="J14" s="47">
+      <c r="J14" s="46">
         <f t="shared" si="2"/>
         <v>3.8876889848812095E-2</v>
       </c>
-      <c r="K14" s="47"/>
+      <c r="K14" s="46"/>
       <c r="L14" s="40"/>
       <c r="M14" s="40"/>
-      <c r="N14" s="105" t="s">
+      <c r="N14" s="97" t="s">
         <v>241</v>
       </c>
-      <c r="O14" s="109">
+      <c r="O14" s="101">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="35"/>
       <c r="Q14" s="35"/>
       <c r="R14" s="35"/>
     </row>
     <row r="15" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="B15" s="55">
+      <c r="B15" s="54">
         <v>312103918</v>
       </c>
-      <c r="C15" s="55">
+      <c r="C15" s="54">
         <v>370122881</v>
       </c>
-      <c r="D15" s="55">
+      <c r="D15" s="54">
         <v>388173842</v>
       </c>
-      <c r="E15" s="55">
+      <c r="E15" s="54">
         <v>525751189</v>
       </c>
-      <c r="F15" s="60">
+      <c r="F15" s="59">
         <v>1433000000</v>
       </c>
-      <c r="G15" s="55">
+      <c r="G15" s="54">
         <v>1448000000</v>
       </c>
-      <c r="H15" s="55">
+      <c r="H15" s="54">
         <v>1578000000</v>
       </c>
-      <c r="I15" s="55">
+      <c r="I15" s="54">
         <v>1587000000</v>
       </c>
-      <c r="J15" s="56">
+      <c r="J15" s="55">
         <v>1619000000</v>
       </c>
-      <c r="K15" s="61" t="s">
+      <c r="K15" s="60" t="s">
         <v>240</v>
       </c>
       <c r="L15" s="40"/>
       <c r="M15" s="40"/>
-      <c r="N15" s="105" t="s">
+      <c r="N15" s="97" t="s">
         <v>242</v>
       </c>
-      <c r="O15" s="110" cm="1">
+      <c r="O15" s="102" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.3167</v>
+        <v>1.3762000000000001</v>
       </c>
       <c r="P15" s="35"/>
       <c r="Q15" s="35"/>
       <c r="R15" s="35"/>
     </row>
     <row r="16" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="62"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="41"/>
       <c r="C16" s="41">
         <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
@@ -16586,20 +16592,20 @@
         <f t="shared" si="3"/>
         <v>5.7034220532319324E-3</v>
       </c>
-      <c r="J16" s="59">
+      <c r="J16" s="58">
         <f t="shared" si="3"/>
         <v>2.01638311279142E-2</v>
       </c>
-      <c r="K16" s="59">
+      <c r="K16" s="58">
         <f>SUM(F16:J16)/5</f>
         <v>0.37034753950441657</v>
       </c>
       <c r="L16" s="40"/>
       <c r="M16" s="40"/>
-      <c r="N16" s="105" t="s">
+      <c r="N16" s="97" t="s">
         <v>243</v>
       </c>
-      <c r="O16" s="109">
+      <c r="O16" s="101">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="P16" s="35"/>
@@ -16607,87 +16613,87 @@
       <c r="R16" s="35"/>
     </row>
     <row r="17" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="B17" s="45">
+      <c r="B17" s="44">
         <f>B15/B10</f>
         <v>1.1446449954335802E-2</v>
       </c>
-      <c r="C17" s="45">
+      <c r="C17" s="44">
         <f t="shared" ref="C17:J17" si="4">C15/C10</f>
         <v>1.2638650537817996E-2</v>
       </c>
-      <c r="D17" s="45">
+      <c r="D17" s="44">
         <f t="shared" si="4"/>
         <v>1.1594893422546149E-2</v>
       </c>
-      <c r="E17" s="47">
+      <c r="E17" s="46">
         <f t="shared" si="4"/>
         <v>1.5150457869863408E-2</v>
       </c>
-      <c r="F17" s="45">
+      <c r="F17" s="44">
         <f t="shared" si="4"/>
         <v>4.2771012416427889E-2</v>
       </c>
-      <c r="G17" s="45">
+      <c r="G17" s="44">
         <f t="shared" si="4"/>
         <v>4.1699064074874011E-2</v>
       </c>
-      <c r="H17" s="45">
+      <c r="H17" s="44">
         <f t="shared" si="4"/>
         <v>4.4323352620639293E-2</v>
       </c>
-      <c r="I17" s="45">
+      <c r="I17" s="44">
         <f t="shared" si="4"/>
         <v>4.3702153439444842E-2</v>
       </c>
-      <c r="J17" s="47">
+      <c r="J17" s="46">
         <f t="shared" si="4"/>
         <v>4.3709503239740821E-2</v>
       </c>
-      <c r="K17" s="47"/>
+      <c r="K17" s="46"/>
       <c r="L17" s="40"/>
       <c r="M17" s="40"/>
-      <c r="N17" s="111" t="s">
+      <c r="N17" s="103" t="s">
         <v>239</v>
       </c>
-      <c r="O17" s="112">
+      <c r="O17" s="104">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.7076543000000015E-2</v>
+        <v>0.10009759800000001</v>
       </c>
       <c r="P17" s="35"/>
       <c r="Q17" s="35"/>
       <c r="R17" s="35"/>
     </row>
     <row r="18" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="B18" s="64">
+      <c r="B18" s="63">
         <v>9.9126189763338951E-2</v>
       </c>
-      <c r="C18" s="64">
+      <c r="C18" s="63">
         <v>0.14639846041055718</v>
       </c>
-      <c r="D18" s="64">
+      <c r="D18" s="63">
         <v>0.18049633293535733</v>
       </c>
-      <c r="E18" s="64">
+      <c r="E18" s="63">
         <v>0.19550286181520851</v>
       </c>
-      <c r="F18" s="65"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="67"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="66"/>
       <c r="L18" s="40"/>
       <c r="M18" s="40"/>
-      <c r="N18" s="103" t="s">
+      <c r="N18" s="115" t="s">
         <v>244</v>
       </c>
-      <c r="O18" s="104"/>
+      <c r="O18" s="116"/>
       <c r="P18" s="35"/>
       <c r="Q18" s="35"/>
       <c r="R18" s="35"/>
@@ -16706,10 +16712,10 @@
       <c r="K19" s="40"/>
       <c r="L19" s="40"/>
       <c r="M19" s="40"/>
-      <c r="N19" s="105" t="s">
+      <c r="N19" s="97" t="s">
         <v>222</v>
       </c>
-      <c r="O19" s="113">
+      <c r="O19" s="105">
         <f>O6+O7</f>
         <v>3248000000</v>
       </c>
@@ -16731,29 +16737,29 @@
       <c r="K20" s="40"/>
       <c r="L20" s="40"/>
       <c r="M20" s="40"/>
-      <c r="N20" s="105" t="s">
+      <c r="N20" s="97" t="s">
         <v>201</v>
       </c>
-      <c r="O20" s="113" cm="1">
+      <c r="O20" s="105" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>14959341092</v>
+        <v>14895360000</v>
       </c>
       <c r="P20" s="35"/>
       <c r="Q20" s="35"/>
       <c r="R20" s="35"/>
     </row>
     <row r="21" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="98" t="str" cm="1">
+      <c r="A21" s="118" t="str" cm="1">
         <f t="array" ref="A21">_FV(A1,"Industry")</f>
         <v>Electronic Equipment &amp; Parts</v>
       </c>
-      <c r="B21" s="98"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="99" cm="1">
+      <c r="B21" s="118"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="119" cm="1">
         <f t="array" ref="D21">_FV(A1,"Year incorporated",TRUE)</f>
         <v>1992</v>
       </c>
-      <c r="E21" s="99"/>
+      <c r="E21" s="119"/>
       <c r="F21" s="40"/>
       <c r="G21" s="40"/>
       <c r="H21" s="40"/>
@@ -16761,26 +16767,26 @@
       <c r="J21" s="40"/>
       <c r="K21" s="40"/>
       <c r="M21" s="40"/>
-      <c r="N21" s="105" t="s">
+      <c r="N21" s="97" t="s">
         <v>245</v>
       </c>
-      <c r="O21" s="113">
+      <c r="O21" s="105">
         <f>O19+O20</f>
-        <v>18207341092</v>
+        <v>18143360000</v>
       </c>
       <c r="P21" s="35"/>
       <c r="Q21" s="35"/>
       <c r="R21" s="35"/>
     </row>
     <row r="22" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="43" t="str" cm="1">
+      <c r="A22" s="117" t="str" cm="1">
         <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Jabil Inc. is a manufacturing solutions provider. The Company provides comprehensive electronics design, production and product management services to companies in various industries and end markets. It operates through two segments: Electronics Manufacturing Services (EMS) and Diversified Manufacturing Services (DMS). EMS segment is focused on leveraging information technology, supply chain design and engineering, technologies centered on core electronics, utilizing its manufacturing infrastructure and its ability to serve a broad range of end markets. EMS segment includes customers in the fifth generation (5G), wireless and cloud, digital print and retail, industrial and semi-capital equipment, and networking and storage industries. DMS segment provides engineering solutions, which is focused on material sciences, machining, tooling and others. DMS segment includes customers in the automotive and transportation, connected devices, healthcare and packaging, and mobility industries.</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
+      <c r="B22" s="117"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="117"/>
       <c r="F22" s="40"/>
       <c r="G22" s="40"/>
       <c r="H22" s="40"/>
@@ -16789,23 +16795,23 @@
       <c r="K22" s="40"/>
       <c r="L22" s="40"/>
       <c r="M22" s="40"/>
-      <c r="N22" s="107" t="s">
+      <c r="N22" s="99" t="s">
         <v>246</v>
       </c>
-      <c r="O22" s="114">
+      <c r="O22" s="106">
         <f>(O19/O21)</f>
-        <v>0.17838958382710349</v>
+        <v>0.17901866027020352</v>
       </c>
       <c r="P22" s="35"/>
       <c r="Q22" s="35"/>
       <c r="R22" s="35"/>
     </row>
     <row r="23" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
+      <c r="A23" s="117"/>
+      <c r="B23" s="117"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="117"/>
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
       <c r="H23" s="40"/>
@@ -16814,23 +16820,23 @@
       <c r="K23" s="40"/>
       <c r="L23" s="40"/>
       <c r="M23" s="40"/>
-      <c r="N23" s="111" t="s">
+      <c r="N23" s="103" t="s">
         <v>247</v>
       </c>
-      <c r="O23" s="115">
+      <c r="O23" s="107">
         <f>O20/O21</f>
-        <v>0.82161041617289654</v>
+        <v>0.82098133972979648</v>
       </c>
       <c r="P23" s="35"/>
       <c r="Q23" s="35"/>
       <c r="R23" s="35"/>
     </row>
     <row r="24" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
+      <c r="A24" s="117"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
       <c r="F24" s="40"/>
       <c r="G24" s="40"/>
       <c r="H24" s="40"/>
@@ -16839,20 +16845,20 @@
       <c r="K24" s="40"/>
       <c r="L24" s="40"/>
       <c r="M24" s="40"/>
-      <c r="N24" s="116" t="s">
+      <c r="N24" s="108" t="s">
         <v>248</v>
       </c>
-      <c r="O24" s="117"/>
+      <c r="O24" s="109"/>
       <c r="P24" s="35"/>
       <c r="Q24" s="35"/>
       <c r="R24" s="35"/>
     </row>
     <row r="25" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
+      <c r="A25" s="117"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="117"/>
       <c r="F25" s="40"/>
       <c r="G25" s="40"/>
       <c r="H25" s="40"/>
@@ -16861,21 +16867,21 @@
       <c r="K25" s="40"/>
       <c r="L25" s="40"/>
       <c r="M25" s="40"/>
-      <c r="N25" s="118">
+      <c r="N25" s="110">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.4921068259334626E-2</v>
-      </c>
-      <c r="O25" s="119"/>
+        <v>8.7358432741829264E-2</v>
+      </c>
+      <c r="O25" s="111"/>
       <c r="P25" s="35"/>
       <c r="Q25" s="35"/>
       <c r="R25" s="35"/>
     </row>
     <row r="26" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="43"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
+      <c r="A26" s="117"/>
+      <c r="B26" s="117"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="117"/>
+      <c r="E26" s="117"/>
       <c r="F26" s="40"/>
       <c r="G26" s="40"/>
       <c r="H26" s="40"/>
@@ -16891,11 +16897,11 @@
       <c r="R26" s="35"/>
     </row>
     <row r="27" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
+      <c r="A27" s="117"/>
+      <c r="B27" s="117"/>
+      <c r="C27" s="117"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="117"/>
       <c r="F27" s="40"/>
       <c r="G27" s="40"/>
       <c r="H27" s="40"/>
@@ -16911,11 +16917,11 @@
       <c r="R27" s="35"/>
     </row>
     <row r="28" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="43"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
+      <c r="A28" s="117"/>
+      <c r="B28" s="117"/>
+      <c r="C28" s="117"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="117"/>
       <c r="F28" s="40"/>
       <c r="G28" s="40"/>
       <c r="H28" s="40"/>
@@ -16931,11 +16937,11 @@
       <c r="R28" s="35"/>
     </row>
     <row r="29" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="43"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
+      <c r="A29" s="117"/>
+      <c r="B29" s="117"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="117"/>
+      <c r="E29" s="117"/>
       <c r="F29" s="40"/>
       <c r="G29" s="40"/>
       <c r="H29" s="40"/>
@@ -16951,11 +16957,11 @@
       <c r="R29" s="35"/>
     </row>
     <row r="30" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="43"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
+      <c r="A30" s="117"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="117"/>
       <c r="F30" s="40"/>
       <c r="G30" s="40"/>
       <c r="H30" s="40"/>
